--- a/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab9e30a70c0c263a/桌面/RYY_USER02_会員登録画面_エビデンス/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\certificate-online\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\RYY_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C7DEBF2-76A3-4DD3-93AD-B071C17363DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C51C6FB-611A-48B0-95C3-BB29901010AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ショット-1" sheetId="1" r:id="rId1"/>
     <sheet name="UT-USER02-B-004" sheetId="2" r:id="rId2"/>
     <sheet name="UT-USER02-B-007" sheetId="3" r:id="rId3"/>
+    <sheet name="UT-USER02-B-023-025" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -70,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +84,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1208,6 +1216,55 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>433057</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A5AAA0-5EE1-4F68-803E-F31CBE03A3D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7748257" cy="3084746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1604,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E647BCE-FFBC-4E2B-8FBB-2B2B42E46E29}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
@@ -1614,4 +1671,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4382EAB9-7B5C-4265-932B-CBB8E5578E94}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\certificate-online\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\RYY_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C51C6FB-611A-48B0-95C3-BB29901010AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABE22DB-DF89-4515-8E76-D5A9C3358D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ショット-1" sheetId="1" r:id="rId1"/>
     <sheet name="UT-USER02-B-004" sheetId="2" r:id="rId2"/>
     <sheet name="UT-USER02-B-007" sheetId="3" r:id="rId3"/>
     <sheet name="UT-USER02-B-023-025" sheetId="4" r:id="rId4"/>
+    <sheet name="UT-USER02-B-010" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1259,6 +1260,98 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="7748257" cy="3084746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>96123</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C615FAFD-0AE5-45D0-9FC5-BED1C9E04863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="10248" b="4893"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15241" y="0"/>
+          <a:ext cx="9224882" cy="4412775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>226380</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>150295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7133D946-CE0D-4154-9BBA-47958AEA6C7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4831080"/>
+          <a:ext cx="7541580" cy="4432735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1677,7 +1770,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4382EAB9-7B5C-4265-932B-CBB8E5578E94}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3359801C-1A6D-4E39-9F09-E71E7378189B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\certificate-online\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\RYY_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABE22DB-DF89-4515-8E76-D5A9C3358D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D0F1CA-0FA3-4D94-B064-3041C2359A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ショット-1" sheetId="1" r:id="rId1"/>
     <sheet name="UT-USER02-B-004" sheetId="2" r:id="rId2"/>
     <sheet name="UT-USER02-B-007" sheetId="3" r:id="rId3"/>
-    <sheet name="UT-USER02-B-023-025" sheetId="4" r:id="rId4"/>
-    <sheet name="UT-USER02-B-010" sheetId="5" r:id="rId5"/>
+    <sheet name="UT-USER02-B-010" sheetId="5" r:id="rId4"/>
+    <sheet name="UT-USER02-B-023-025" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1227,6 +1227,98 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>96123</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C615FAFD-0AE5-45D0-9FC5-BED1C9E04863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="10248" b="4893"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15241" y="0"/>
+          <a:ext cx="9224882" cy="4412775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>226380</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>150295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7133D946-CE0D-4154-9BBA-47958AEA6C7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4831080"/>
+          <a:ext cx="7541580" cy="4432735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1260,98 +1352,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="7748257" cy="3084746"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>15241</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>96123</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>31275</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C615FAFD-0AE5-45D0-9FC5-BED1C9E04863}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="10248" b="4893"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15241" y="0"/>
-          <a:ext cx="9224882" cy="4412775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>226380</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>150295</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7133D946-CE0D-4154-9BBA-47958AEA6C7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4831080"/>
-          <a:ext cx="7541580" cy="4432735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1767,21 +1767,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4382EAB9-7B5C-4265-932B-CBB8E5578E94}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3359801C-1A6D-4E39-9F09-E71E7378189B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1796,4 +1781,19 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4382EAB9-7B5C-4265-932B-CBB8E5578E94}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\certificate-online\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\RYY_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D0F1CA-0FA3-4D94-B064-3041C2359A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5FE3E5-6B88-4A7D-8C31-09F3B922D124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ショット-1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="UT-USER02-B-007" sheetId="3" r:id="rId3"/>
     <sheet name="UT-USER02-B-010" sheetId="5" r:id="rId4"/>
     <sheet name="UT-USER02-B-023-025" sheetId="4" r:id="rId5"/>
+    <sheet name="UT-USER02-B-028" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1352,6 +1353,55 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="7748257" cy="3084746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>195113</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B9D50D-8903-41AF-970B-D13E0CE5A7FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="259080"/>
+          <a:ext cx="7929413" cy="3726179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1770,7 +1820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3359801C-1A6D-4E39-9F09-E71E7378189B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1796,4 +1846,19 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7869FD63-C7E4-49D3-B79F-73889EC9C5E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\certificate-online\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\RYY_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5FE3E5-6B88-4A7D-8C31-09F3B922D124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9772394-F9DD-47D3-B1FF-6D3353E1D5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1402,6 +1402,50 @@
         <a:xfrm>
           <a:off x="190500" y="259080"/>
           <a:ext cx="7929413" cy="3726179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>464821</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542621</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>5289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5463F1B5-6750-474B-9984-2F54912AE7CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="464821" y="4320540"/>
+          <a:ext cx="7393000" cy="4447749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1852,7 +1896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7869FD63-C7E4-49D3-B79F-73889EC9C5E6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\certificate-online\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\RYY_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9772394-F9DD-47D3-B1FF-6D3353E1D5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89E793B-11C5-4933-B0A8-979F9CFA722A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ショット-1" sheetId="1" r:id="rId1"/>
     <sheet name="UT-USER02-B-004" sheetId="2" r:id="rId2"/>
     <sheet name="UT-USER02-B-007" sheetId="3" r:id="rId3"/>
     <sheet name="UT-USER02-B-010" sheetId="5" r:id="rId4"/>
-    <sheet name="UT-USER02-B-023-025" sheetId="4" r:id="rId5"/>
-    <sheet name="UT-USER02-B-028" sheetId="6" r:id="rId6"/>
+    <sheet name="UT-USER02-B-023" sheetId="4" r:id="rId5"/>
+    <sheet name="UT-USER02-B-025" sheetId="7" r:id="rId6"/>
+    <sheet name="UT-USER02-B-028" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1228,22 +1229,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15241</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>96123</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>31275</xdr:rowOff>
+      <xdr:colOff>289561</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>539175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>166530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C615FAFD-0AE5-45D0-9FC5-BED1C9E04863}"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A678939-3593-9173-26B7-F8B0C3E73F44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1251,15 +1252,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="10248" b="4893"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15241" y="0"/>
-          <a:ext cx="9224882" cy="4412775"/>
+          <a:off x="289561" y="259080"/>
+          <a:ext cx="8174414" cy="4113690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1271,22 +1273,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>226380</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>150295</xdr:rowOff>
+      <xdr:colOff>264541</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>298779</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>153242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7133D946-CE0D-4154-9BBA-47958AEA6C7D}"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B9D389-7993-61CB-095D-FF1054581E91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1302,8 +1304,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4831080"/>
-          <a:ext cx="7541580" cy="4432735"/>
+          <a:off x="264541" y="4587240"/>
+          <a:ext cx="8568638" cy="5205302"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1320,22 +1322,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:colOff>365761</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>433057</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>105326</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>293469</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>52229</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A5AAA0-5EE1-4F68-803E-F31CBE03A3D5}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB23E43-A03F-EC9D-8E9D-D6F5FD1C1CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,8 +1353,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7748257" cy="3084746"/>
+          <a:off x="365761" y="175260"/>
+          <a:ext cx="8462108" cy="4258469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>492763</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>42835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6EE92D-8398-C0A8-8ED6-C068CAA8FDB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="492763" y="4763150"/>
+          <a:ext cx="8361677" cy="4918985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1369,22 +1415,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>389439</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>195113</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>555495</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>174150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B9D50D-8903-41AF-970B-D13E0CE5A7FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6538C199-8500-1D7D-F80D-8D7C268BD4D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1400,8 +1446,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="259080"/>
-          <a:ext cx="7929413" cy="3726179"/>
+          <a:off x="389439" y="220980"/>
+          <a:ext cx="9310056" cy="4685190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1413,22 +1459,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>464821</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>542621</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>5289</xdr:rowOff>
+      <xdr:colOff>427249</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>565699</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>119035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5463F1B5-6750-474B-9984-2F54912AE7CB}"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48D5F66-D838-98F0-9BFD-DA022F61DE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,8 +1490,101 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="464821" y="4320540"/>
-          <a:ext cx="7393000" cy="4447749"/>
+          <a:off x="427249" y="5349240"/>
+          <a:ext cx="9282450" cy="5460655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>503509</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457579</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>143670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFD96A6-3392-633C-9A9C-0D9CA1FC3CBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="503509" y="121920"/>
+          <a:ext cx="9098070" cy="4578510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>469120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>483305</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3418745-ED3A-46D3-BBD9-8236E68C8DC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="469120" y="4953000"/>
+          <a:ext cx="9158185" cy="5563442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1864,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3359801C-1A6D-4E39-9F09-E71E7378189B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1881,7 +2020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4382EAB9-7B5C-4265-932B-CBB8E5578E94}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
@@ -1893,11 +2034,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC58C3B-06DA-470E-8781-3370C6CD9C4F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7869FD63-C7E4-49D3-B79F-73889EC9C5E6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
